--- a/code/results/spss/other_data_caseII_pos10.xlsx
+++ b/code/results/spss/other_data_caseII_pos10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arshaali\Documents\MATLAB\artificial-trust-task-allocation\code\results\spss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{25FEC0CB-B388-4984-862F-AC2315E44D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B392F1E5-D9D0-4FA8-941F-6195D02DAAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2835" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="other_data_caseII_pos10" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ATTA Num Succ</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>Tsarouchi R Num Fail + Discarded</t>
+  </si>
+  <si>
+    <t>ATTA H Cost for Failures</t>
+  </si>
+  <si>
+    <t>ATTA R Cost for Failures</t>
+  </si>
+  <si>
+    <t>Tsarouchi MIN H Cost for Failures</t>
+  </si>
+  <si>
+    <t>Tsarouchi MIN R Cost for Failures</t>
   </si>
 </sst>
 </file>
@@ -923,38 +935,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,8 +1034,20 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>399</v>
       </c>
@@ -1083,8 +1111,20 @@
       <c r="U2">
         <v>35</v>
       </c>
+      <c r="V2">
+        <v>2.6720876217459</v>
+      </c>
+      <c r="W2">
+        <v>12.3283111690625</v>
+      </c>
+      <c r="X2">
+        <v>14.4649649718333</v>
+      </c>
+      <c r="Y2">
+        <v>2.8842895980363199</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>357</v>
       </c>
@@ -1148,8 +1188,20 @@
       <c r="U3">
         <v>39</v>
       </c>
+      <c r="V3">
+        <v>0.74408058723098702</v>
+      </c>
+      <c r="W3">
+        <v>18.3688860622863</v>
+      </c>
+      <c r="X3">
+        <v>20.297275063517802</v>
+      </c>
+      <c r="Y3">
+        <v>3.1949536758237702</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>398</v>
       </c>
@@ -1213,8 +1265,20 @@
       <c r="U4">
         <v>47</v>
       </c>
+      <c r="V4">
+        <v>2.6865228560818499</v>
+      </c>
+      <c r="W4">
+        <v>13.3286065976421</v>
+      </c>
+      <c r="X4">
+        <v>16.337932925933199</v>
+      </c>
+      <c r="Y4">
+        <v>3.81942119939889</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>391</v>
       </c>
@@ -1278,8 +1342,20 @@
       <c r="U5">
         <v>35</v>
       </c>
+      <c r="V5">
+        <v>2.9310042475495801</v>
+      </c>
+      <c r="W5">
+        <v>13.579284661867799</v>
+      </c>
+      <c r="X5">
+        <v>20.928532289325801</v>
+      </c>
+      <c r="Y5">
+        <v>2.8118272555038901</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>382</v>
       </c>
@@ -1343,8 +1419,20 @@
       <c r="U6">
         <v>31</v>
       </c>
+      <c r="V6">
+        <v>1.7525117617388699</v>
+      </c>
+      <c r="W6">
+        <v>15.182411123623201</v>
+      </c>
+      <c r="X6">
+        <v>19.183187749052902</v>
+      </c>
+      <c r="Y6">
+        <v>2.4946626726748899</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>378</v>
       </c>
@@ -1408,8 +1496,20 @@
       <c r="U7">
         <v>40</v>
       </c>
+      <c r="V7">
+        <v>1.05604380662411</v>
+      </c>
+      <c r="W7">
+        <v>16.093658535388499</v>
+      </c>
+      <c r="X7">
+        <v>15.6912289900819</v>
+      </c>
+      <c r="Y7">
+        <v>3.2342542674729402</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>383</v>
       </c>
@@ -1473,8 +1573,20 @@
       <c r="U8">
         <v>45</v>
       </c>
+      <c r="V8">
+        <v>2.55449287289477</v>
+      </c>
+      <c r="W8">
+        <v>14.920576240820999</v>
+      </c>
+      <c r="X8">
+        <v>18.670255461831299</v>
+      </c>
+      <c r="Y8">
+        <v>3.7582350153034598</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>380</v>
       </c>
@@ -1538,8 +1650,20 @@
       <c r="U9">
         <v>35</v>
       </c>
+      <c r="V9">
+        <v>3.5554878088780999</v>
+      </c>
+      <c r="W9">
+        <v>14.868615354645099</v>
+      </c>
+      <c r="X9">
+        <v>21.375834148329599</v>
+      </c>
+      <c r="Y9">
+        <v>2.8382004816587201</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>399</v>
       </c>
@@ -1603,8 +1727,20 @@
       <c r="U10">
         <v>30</v>
       </c>
+      <c r="V10">
+        <v>1.3740478201514501</v>
+      </c>
+      <c r="W10">
+        <v>13.595029701367601</v>
+      </c>
+      <c r="X10">
+        <v>19.014724432337701</v>
+      </c>
+      <c r="Y10">
+        <v>2.2979210724330299</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>383</v>
       </c>
@@ -1667,6 +1803,18 @@
       </c>
       <c r="U11">
         <v>47</v>
+      </c>
+      <c r="V11">
+        <v>2.04408086108378</v>
+      </c>
+      <c r="W11">
+        <v>15.5826476926888</v>
+      </c>
+      <c r="X11">
+        <v>16.418468265158801</v>
+      </c>
+      <c r="Y11">
+        <v>3.8498519586645799</v>
       </c>
     </row>
   </sheetData>
